--- a/module4/metagenomics_results/gut_R1.gene_mapping_data.xlsx
+++ b/module4/metagenomics_results/gut_R1.gene_mapping_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20420" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="18300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="gut_R1.gene_mapping_data.txt" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Resistomes &amp; Variants: Observed in Plasmid(s)</t>
   </si>
   <si>
-    <t>Observed Pathogen (CARD &amp; Resistomes)</t>
-  </si>
-  <si>
     <t>Completely Mapped Reads</t>
   </si>
   <si>
@@ -1255,6 +1252,9 @@
   </si>
   <si>
     <t>antibiotic target alteration; antibiotic inactivation</t>
+  </si>
+  <si>
+    <t>Observed Pathogens (CARD &amp; Resistomes)</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,16 +1304,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1653,24 +1650,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="55.83203125" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="37.83203125" customWidth="1"/>
-    <col min="15" max="15" width="35" customWidth="1"/>
-    <col min="16" max="16" width="31.33203125" customWidth="1"/>
-    <col min="17" max="17" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.1640625" customWidth="1"/>
+    <col min="8" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="12.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="31.6640625" customWidth="1"/>
+    <col min="15" max="17" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="75">
@@ -1693,1891 +1686,1858 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2">
-        <v>1678</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2">
-        <v>82</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1760</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>76</v>
       </c>
       <c r="K2" s="2">
-        <v>18.350000000000001</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="L2" s="2">
-        <v>527.16999999999996</v>
+        <v>295.10000000000002</v>
       </c>
       <c r="M2" s="2">
-        <v>8.3699999999999992</v>
+        <v>1.43</v>
       </c>
       <c r="N2" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="H3" s="2">
-        <v>1095</v>
+        <v>2977</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1096</v>
+        <v>92</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3069</v>
       </c>
       <c r="K3" s="2">
-        <v>17.62</v>
+        <v>15.25</v>
       </c>
       <c r="L3" s="2">
-        <v>555.92999999999995</v>
+        <v>422.54</v>
       </c>
       <c r="M3" s="2">
-        <v>11.87</v>
+        <v>1.47</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="2">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="2">
-        <v>272</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H4" s="2">
-        <v>233</v>
+        <v>1907</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>233</v>
+        <v>41</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1948</v>
       </c>
       <c r="K4" s="2">
-        <v>47.15</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="L4" s="2">
-        <v>358.85</v>
+        <v>450.58</v>
       </c>
       <c r="M4" s="2">
-        <v>15.16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>189</v>
+        <v>1.58</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H5" s="2">
-        <v>1263</v>
+        <v>611</v>
       </c>
       <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1264</v>
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>621</v>
       </c>
       <c r="K5" s="2">
-        <v>24.42</v>
+        <v>28.34</v>
       </c>
       <c r="L5" s="2">
-        <v>628.17999999999995</v>
+        <v>301.38</v>
       </c>
       <c r="M5" s="2">
-        <v>10.78</v>
+        <v>1.87</v>
       </c>
       <c r="N5" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D6" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="H6" s="2">
-        <v>313</v>
+        <v>2434</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>322</v>
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2443</v>
       </c>
       <c r="K6" s="2">
-        <v>47.25</v>
+        <v>22.75</v>
       </c>
       <c r="L6" s="2">
-        <v>364.15</v>
+        <v>554.57000000000005</v>
       </c>
       <c r="M6" s="2">
-        <v>5.37</v>
+        <v>1.83</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="P6" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="2">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="H7" s="2">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4">
-        <v>511</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>23.63</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="L7" s="2">
-        <v>348.58</v>
+        <v>34</v>
       </c>
       <c r="M7" s="2">
-        <v>12.33</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>244</v>
+        <v>367</v>
       </c>
       <c r="O7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q7" t="s">
         <v>49</v>
-      </c>
-      <c r="P7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="H8" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I8" s="2">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4">
-        <v>283</v>
+        <v>36</v>
+      </c>
+      <c r="J8" s="2">
+        <v>306</v>
       </c>
       <c r="K8" s="2">
-        <v>48.71</v>
+        <v>6.83</v>
       </c>
       <c r="L8" s="2">
-        <v>370.06</v>
+        <v>213.98</v>
       </c>
       <c r="M8" s="2">
-        <v>11.66</v>
+        <v>2.16</v>
       </c>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="O8" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>325</v>
       </c>
       <c r="H9" s="2">
-        <v>1306</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1345</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
       </c>
       <c r="K9" s="2">
-        <v>18.079999999999998</v>
+        <v>45.47</v>
       </c>
       <c r="L9" s="2">
-        <v>517.74</v>
+        <v>231.33</v>
       </c>
       <c r="M9" s="2">
-        <v>5.82</v>
+        <v>0.83</v>
       </c>
       <c r="O9" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>172</v>
-      </c>
       <c r="D10" s="2">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2">
-        <v>317</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>317</v>
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>26</v>
       </c>
       <c r="K10" s="2">
-        <v>31.62</v>
+        <v>15.28</v>
       </c>
       <c r="L10" s="2">
-        <v>352.29</v>
+        <v>135</v>
       </c>
       <c r="M10" s="2">
-        <v>5.24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
       <c r="D11" s="2">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="H11" s="2">
-        <v>391</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2">
-        <v>33</v>
-      </c>
-      <c r="J11" s="4">
-        <v>420</v>
+        <v>4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>54</v>
       </c>
       <c r="K11" s="2">
-        <v>25.61</v>
+        <v>45.09</v>
       </c>
       <c r="L11" s="2">
-        <v>317.61</v>
+        <v>355.75</v>
       </c>
       <c r="M11" s="2">
-        <v>9.02</v>
-      </c>
-      <c r="N11" t="s">
-        <v>218</v>
+        <v>2.85</v>
       </c>
       <c r="O11" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="2">
-        <v>146</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H12" s="2">
-        <v>294</v>
+        <v>972</v>
       </c>
       <c r="I12" s="2">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>297</v>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>973</v>
       </c>
       <c r="K12" s="2">
-        <v>30.93</v>
+        <v>46.57</v>
       </c>
       <c r="L12" s="2">
-        <v>326.08999999999997</v>
+        <v>323.98</v>
       </c>
       <c r="M12" s="2">
-        <v>5.51</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="N12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O12" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
       <c r="D13" s="2">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="H13" s="2">
-        <v>1581</v>
+        <v>216</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1581</v>
+        <v>7</v>
+      </c>
+      <c r="J13" s="2">
+        <v>223</v>
       </c>
       <c r="K13" s="2">
-        <v>18.88</v>
+        <v>49.31</v>
       </c>
       <c r="L13" s="2">
-        <v>467.86</v>
+        <v>301.39</v>
       </c>
       <c r="M13" s="2">
-        <v>10.119999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="O13" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="Q13" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D14" s="2">
-        <v>128</v>
+        <v>211</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>226</v>
       </c>
       <c r="H14" s="2">
-        <v>759</v>
+        <v>831</v>
       </c>
       <c r="I14" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" s="4">
-        <v>769</v>
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>847</v>
       </c>
       <c r="K14" s="2">
-        <v>34.32</v>
+        <v>47.49</v>
       </c>
       <c r="L14" s="2">
-        <v>589.95000000000005</v>
+        <v>337.19</v>
       </c>
       <c r="M14" s="2">
-        <v>3.96</v>
+        <v>1.98</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="H15" s="2">
-        <v>1146</v>
+        <v>321</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1161</v>
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>326</v>
       </c>
       <c r="K15" s="2">
-        <v>30.51</v>
+        <v>39.58</v>
       </c>
       <c r="L15" s="2">
-        <v>389.33</v>
+        <v>292.35000000000002</v>
       </c>
       <c r="M15" s="2">
-        <v>8.68</v>
+        <v>2.91</v>
       </c>
       <c r="N15" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="O15" t="s">
+        <v>174</v>
+      </c>
+      <c r="P15" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q15" t="s">
         <v>49</v>
-      </c>
-      <c r="P15" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="2">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="H16" s="2">
-        <v>46</v>
+        <v>1331</v>
       </c>
       <c r="I16" s="2">
-        <v>7</v>
-      </c>
-      <c r="J16" s="4">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1333</v>
       </c>
       <c r="K16" s="2">
-        <v>7.28</v>
+        <v>41.2</v>
       </c>
       <c r="L16" s="2">
-        <v>234.46</v>
+        <v>555.13</v>
       </c>
       <c r="M16" s="2">
-        <v>5.35</v>
+        <v>3.08</v>
       </c>
       <c r="N16" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="O16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P16" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="Q16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="2">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>173</v>
+        <v>376</v>
       </c>
       <c r="H17" s="2">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>267</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
       </c>
       <c r="K17" s="2">
-        <v>32.979999999999997</v>
+        <v>11.72</v>
       </c>
       <c r="L17" s="2">
-        <v>375.22</v>
+        <v>77</v>
       </c>
       <c r="M17" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>377</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>378</v>
       </c>
       <c r="Q17" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H18" s="2">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="I18" s="2">
-        <v>138</v>
-      </c>
-      <c r="J18" s="4">
-        <v>618</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
       </c>
       <c r="K18" s="2">
-        <v>29.94</v>
+        <v>38.68</v>
       </c>
       <c r="L18" s="2">
-        <v>359.47</v>
+        <v>374</v>
       </c>
       <c r="M18" s="2">
-        <v>7.86</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="H19" s="2">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2">
-        <v>24</v>
-      </c>
-      <c r="J19" s="4">
-        <v>449</v>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
       </c>
       <c r="K19" s="2">
-        <v>29.41</v>
+        <v>24.82</v>
       </c>
       <c r="L19" s="2">
-        <v>288.89999999999998</v>
+        <v>240</v>
       </c>
       <c r="M19" s="2">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="N19" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="H20" s="2">
-        <v>557</v>
+        <v>2</v>
       </c>
       <c r="I20" s="2">
-        <v>11</v>
-      </c>
-      <c r="J20" s="4">
-        <v>568</v>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
       </c>
       <c r="K20" s="2">
-        <v>41.42</v>
+        <v>29.09</v>
       </c>
       <c r="L20" s="2">
-        <v>372.94</v>
+        <v>290</v>
       </c>
       <c r="M20" s="2">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="N20" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H21" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
       </c>
       <c r="K21" s="2">
-        <v>49.68</v>
+        <v>26.24</v>
       </c>
       <c r="L21" s="2">
-        <v>251.05</v>
+        <v>301</v>
       </c>
       <c r="M21" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="N21" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H22" s="2">
-        <v>1198</v>
+        <v>724</v>
       </c>
       <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>1206</v>
+        <v>44</v>
+      </c>
+      <c r="J22" s="2">
+        <v>768</v>
       </c>
       <c r="K22" s="2">
-        <v>20.14</v>
+        <v>24.3</v>
       </c>
       <c r="L22" s="2">
-        <v>566.70000000000005</v>
+        <v>301.70999999999998</v>
       </c>
       <c r="M22" s="2">
-        <v>7.33</v>
+        <v>2.19</v>
       </c>
       <c r="N22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>318</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="2">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="H23" s="2">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
-        <v>4</v>
-      </c>
-      <c r="J23" s="4">
-        <v>147</v>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
       </c>
       <c r="K23" s="2">
-        <v>47.45</v>
+        <v>35.15</v>
       </c>
       <c r="L23" s="2">
-        <v>308.31</v>
+        <v>174</v>
       </c>
       <c r="M23" s="2">
-        <v>5.89</v>
-      </c>
-      <c r="N23" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="O23" t="s">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
       <c r="D24" s="2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>24</v>
       </c>
       <c r="K24" s="2">
-        <v>50.17</v>
+        <v>60.41</v>
       </c>
       <c r="L24" s="2">
-        <v>321.51</v>
+        <v>239.78</v>
       </c>
       <c r="M24" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="N24" t="s">
-        <v>93</v>
+        <v>2.85</v>
       </c>
       <c r="O24" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="H25" s="2">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="I25" s="2">
-        <v>3</v>
-      </c>
-      <c r="J25" s="4">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
       </c>
       <c r="K25" s="2">
-        <v>48.25</v>
+        <v>24.21</v>
       </c>
       <c r="L25" s="2">
-        <v>317.49</v>
+        <v>276</v>
       </c>
       <c r="M25" s="2">
-        <v>4.05</v>
-      </c>
-      <c r="N25" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="P25" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="Q25" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="H26" s="2">
-        <v>355</v>
+        <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>70</v>
-      </c>
-      <c r="J26" s="4">
-        <v>413</v>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
       </c>
       <c r="K26" s="2">
-        <v>30.62</v>
+        <v>17.73</v>
       </c>
       <c r="L26" s="2">
-        <v>346.07</v>
+        <v>225</v>
       </c>
       <c r="M26" s="2">
-        <v>6.14</v>
-      </c>
-      <c r="N26" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="P26" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
       <c r="Q26" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="2">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="H27" s="2">
-        <v>541</v>
+        <v>756</v>
       </c>
       <c r="I27" s="2">
-        <v>6</v>
-      </c>
-      <c r="J27" s="4">
-        <v>619</v>
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>758</v>
       </c>
       <c r="K27" s="2">
-        <v>37.76</v>
+        <v>28.5</v>
       </c>
       <c r="L27" s="2">
-        <v>411.03</v>
+        <v>315.19</v>
       </c>
       <c r="M27" s="2">
-        <v>14.77</v>
+        <v>1.36</v>
       </c>
       <c r="N27" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
+        <v>48</v>
+      </c>
+      <c r="P27" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" t="s">
         <v>49</v>
-      </c>
-      <c r="P27" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D28" s="2">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="H28" s="2">
-        <v>649</v>
+        <v>1074</v>
       </c>
       <c r="I28" s="2">
-        <v>5</v>
-      </c>
-      <c r="J28" s="4">
-        <v>658</v>
+        <v>33</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1107</v>
       </c>
       <c r="K28" s="2">
-        <v>30.6</v>
+        <v>21.3</v>
       </c>
       <c r="L28" s="2">
-        <v>524.76</v>
+        <v>303.97000000000003</v>
       </c>
       <c r="M28" s="2">
-        <v>3.38</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P28" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="Q28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D29" s="2">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="H29" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2">
-        <v>90</v>
-      </c>
-      <c r="J29" s="4">
-        <v>233</v>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>46</v>
       </c>
       <c r="K29" s="2">
-        <v>9.2799999999999994</v>
+        <v>23.35</v>
       </c>
       <c r="L29" s="2">
-        <v>128.68</v>
+        <v>202.54</v>
       </c>
       <c r="M29" s="2">
-        <v>4.21</v>
+        <v>2.44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>271</v>
       </c>
       <c r="O29" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>43</v>
       </c>
       <c r="Q29" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>172</v>
-      </c>
       <c r="D30" s="2">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="H30" s="2">
-        <v>768</v>
+        <v>230</v>
       </c>
       <c r="I30" s="2">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4">
-        <v>764</v>
+        <v>23</v>
+      </c>
+      <c r="J30" s="2">
+        <v>253</v>
       </c>
       <c r="K30" s="2">
-        <v>30.12</v>
+        <v>46.8</v>
       </c>
       <c r="L30" s="2">
-        <v>353.53</v>
+        <v>234.64</v>
       </c>
       <c r="M30" s="2">
-        <v>5.39</v>
+        <v>1.36</v>
+      </c>
+      <c r="N30" t="s">
+        <v>88</v>
       </c>
       <c r="O30" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" t="s">
         <v>49</v>
-      </c>
-      <c r="P30" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
       <c r="D31" s="2">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="H31" s="2">
-        <v>121</v>
+        <v>1437</v>
       </c>
       <c r="I31" s="2">
-        <v>11</v>
-      </c>
-      <c r="J31" s="4">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1441</v>
       </c>
       <c r="K31" s="2">
-        <v>15.27</v>
+        <v>28.34</v>
       </c>
       <c r="L31" s="2">
-        <v>422.38</v>
+        <v>352.43</v>
       </c>
       <c r="M31" s="2">
-        <v>12.9</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="N31" t="s">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="O31" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H32" s="2">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="I32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4">
-        <v>134</v>
+        <v>64</v>
+      </c>
+      <c r="J32" s="2">
+        <v>469</v>
       </c>
       <c r="K32" s="2">
-        <v>43.68</v>
+        <v>89.45</v>
       </c>
       <c r="L32" s="2">
-        <v>247.85</v>
+        <v>1009</v>
       </c>
       <c r="M32" s="2">
-        <v>8.11</v>
+        <v>18.75</v>
       </c>
       <c r="N32" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="P32" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="Q32" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="H33" s="2">
-        <v>1263</v>
+        <v>2</v>
       </c>
       <c r="I33" s="2">
-        <v>1</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1264</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
       </c>
       <c r="K33" s="2">
-        <v>42.6</v>
+        <v>20.85</v>
       </c>
       <c r="L33" s="2">
-        <v>589.38</v>
+        <v>249</v>
       </c>
       <c r="M33" s="2">
-        <v>10.86</v>
-      </c>
-      <c r="N33" t="s">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
+        <v>174</v>
+      </c>
+      <c r="P33" t="s">
         <v>175</v>
       </c>
-      <c r="P33" t="s">
-        <v>219</v>
-      </c>
       <c r="Q33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="2">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H34" s="2">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
-      </c>
-      <c r="J34" s="4">
-        <v>147</v>
+        <v>113</v>
+      </c>
+      <c r="J34" s="2">
+        <v>320</v>
       </c>
       <c r="K34" s="2">
-        <v>60.74</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L34" s="2">
-        <v>205.7</v>
+        <v>129.41999999999999</v>
       </c>
       <c r="M34" s="2">
-        <v>5.28</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O34" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="Q34" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="H35" s="2">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="I35" s="2">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4">
-        <v>271</v>
+        <v>5</v>
+      </c>
+      <c r="J35" s="2">
+        <v>10</v>
       </c>
       <c r="K35" s="2">
-        <v>41.22</v>
+        <v>5.99</v>
       </c>
       <c r="L35" s="2">
-        <v>313.29000000000002</v>
+        <v>48</v>
       </c>
       <c r="M35" s="2">
-        <v>7.78</v>
-      </c>
-      <c r="N35" t="s">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="Q35" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="H36" s="2">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="I36" s="2">
-        <v>4</v>
-      </c>
-      <c r="J36" s="4">
-        <v>113</v>
+        <v>17</v>
+      </c>
+      <c r="J36" s="2">
+        <v>249</v>
       </c>
       <c r="K36" s="2">
-        <v>53.31</v>
+        <v>47.86</v>
       </c>
       <c r="L36" s="2">
-        <v>233.85</v>
+        <v>300.17</v>
       </c>
       <c r="M36" s="2">
-        <v>6.68</v>
+        <v>1.43</v>
       </c>
       <c r="N36" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="O36" t="s">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q36" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D37" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -3586,1031 +3546,1028 @@
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="H37" s="2">
+        <v>184</v>
+      </c>
+      <c r="I37" s="2">
+        <v>22</v>
+      </c>
+      <c r="J37" s="2">
         <v>206</v>
       </c>
-      <c r="I37" s="2">
-        <v>35</v>
-      </c>
-      <c r="J37" s="4">
-        <v>242</v>
-      </c>
       <c r="K37" s="2">
-        <v>29.45</v>
+        <v>98.06</v>
       </c>
       <c r="L37" s="2">
-        <v>222.16</v>
+        <v>556</v>
       </c>
       <c r="M37" s="2">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="N37" t="s">
-        <v>120</v>
+        <v>2.98</v>
       </c>
       <c r="O37" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q37" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D38" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="H38" s="2">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="4">
-        <v>101</v>
+      <c r="J38" s="2">
+        <v>2</v>
       </c>
       <c r="K38" s="2">
-        <v>40.9</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="L38" s="2">
-        <v>184.8</v>
+        <v>301</v>
       </c>
       <c r="M38" s="2">
-        <v>2.54</v>
-      </c>
-      <c r="N38" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q38" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D39" s="2">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="H39" s="2">
-        <v>77</v>
+        <v>602</v>
       </c>
       <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="4">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>604</v>
       </c>
       <c r="K39" s="2">
-        <v>59.97</v>
+        <v>30.67</v>
       </c>
       <c r="L39" s="2">
-        <v>234.48</v>
+        <v>339.89</v>
       </c>
       <c r="M39" s="2">
-        <v>5.69</v>
+        <v>1.6</v>
       </c>
       <c r="N39" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="O39" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="P39" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="Q39" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="H40" s="2">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="J40" s="2">
+        <v>301</v>
       </c>
       <c r="K40" s="2">
-        <v>40.770000000000003</v>
+        <v>45.21</v>
       </c>
       <c r="L40" s="2">
-        <v>306.91000000000003</v>
+        <v>287.08</v>
       </c>
       <c r="M40" s="2">
-        <v>7.2</v>
+        <v>2.06</v>
       </c>
       <c r="N40" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="P40" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="Q40" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D41" s="2">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="H41" s="2">
-        <v>15</v>
+        <v>568</v>
       </c>
       <c r="I41" s="2">
-        <v>6</v>
-      </c>
-      <c r="J41" s="4">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="J41" s="2">
+        <v>643</v>
       </c>
       <c r="K41" s="2">
-        <v>18.02</v>
+        <v>29.51</v>
       </c>
       <c r="L41" s="2">
-        <v>163.16999999999999</v>
+        <v>330.46</v>
       </c>
       <c r="M41" s="2">
-        <v>7.04</v>
+        <v>2.93</v>
+      </c>
+      <c r="N41" t="s">
+        <v>235</v>
       </c>
       <c r="O41" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
       <c r="Q41" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="H42" s="2">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="4">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
       </c>
       <c r="K42" s="2">
-        <v>39.619999999999997</v>
+        <v>23.17</v>
       </c>
       <c r="L42" s="2">
-        <v>274.33</v>
+        <v>285</v>
       </c>
       <c r="M42" s="2">
-        <v>7.23</v>
+        <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="Q42" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D43" s="2">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="H43" s="2">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="I43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="J43" s="2">
+        <v>206</v>
       </c>
       <c r="K43" s="2">
-        <v>45.9</v>
+        <v>58.63</v>
       </c>
       <c r="L43" s="2">
-        <v>230.76</v>
+        <v>192.26</v>
       </c>
       <c r="M43" s="2">
-        <v>3.99</v>
-      </c>
-      <c r="N43" t="s">
-        <v>115</v>
+        <v>2.69</v>
       </c>
       <c r="O43" t="s">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="P43" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="Q43" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
         <v>18</v>
       </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
       <c r="D44" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H44" s="2">
-        <v>81</v>
+        <v>887</v>
       </c>
       <c r="I44" s="2">
-        <v>6</v>
-      </c>
-      <c r="J44" s="4">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="J44" s="2">
+        <v>952</v>
       </c>
       <c r="K44" s="2">
-        <v>37.630000000000003</v>
+        <v>72.48</v>
       </c>
       <c r="L44" s="2">
-        <v>331.29</v>
+        <v>615.33000000000004</v>
       </c>
       <c r="M44" s="2">
-        <v>7.89</v>
-      </c>
-      <c r="N44" t="s">
-        <v>132</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="P44" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="Q44" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D45" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>358</v>
       </c>
       <c r="H45" s="2">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="I45" s="2">
-        <v>8</v>
-      </c>
-      <c r="J45" s="4">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6</v>
       </c>
       <c r="K45" s="2">
-        <v>54.2</v>
+        <v>2.96</v>
       </c>
       <c r="L45" s="2">
-        <v>391.88</v>
+        <v>41</v>
       </c>
       <c r="M45" s="2">
-        <v>2.77</v>
+        <v>11</v>
       </c>
       <c r="O45" t="s">
-        <v>166</v>
+        <v>359</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="Q45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="2">
+        <v>34</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>203</v>
+      </c>
+      <c r="H46" s="2">
+        <v>165</v>
+      </c>
+      <c r="I46" s="2">
+        <v>7</v>
+      </c>
+      <c r="J46" s="2">
         <v>172</v>
       </c>
-      <c r="D46" s="2">
-        <v>18</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>268</v>
-      </c>
-      <c r="H46" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" s="2">
-        <v>24</v>
-      </c>
-      <c r="J46" s="4">
-        <v>98</v>
-      </c>
       <c r="K46" s="2">
-        <v>22.64</v>
+        <v>51.84</v>
       </c>
       <c r="L46" s="2">
-        <v>293.5</v>
+        <v>224.68</v>
       </c>
       <c r="M46" s="2">
-        <v>11.15</v>
+        <v>2.29</v>
       </c>
       <c r="N46" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="O46" t="s">
+        <v>174</v>
+      </c>
+      <c r="P46" t="s">
         <v>175</v>
       </c>
-      <c r="P46" t="s">
-        <v>212</v>
-      </c>
       <c r="Q46" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D47" s="2">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="H47" s="2">
-        <v>30</v>
+        <v>755</v>
       </c>
       <c r="I47" s="2">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="J47" s="2">
+        <v>763</v>
       </c>
       <c r="K47" s="2">
-        <v>24.16</v>
+        <v>36.29</v>
       </c>
       <c r="L47" s="2">
-        <v>211.18</v>
+        <v>390.55</v>
       </c>
       <c r="M47" s="2">
-        <v>7.25</v>
+        <v>4.72</v>
       </c>
       <c r="N47" t="s">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="O47" t="s">
+        <v>48</v>
+      </c>
+      <c r="P47" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q47" t="s">
         <v>49</v>
-      </c>
-      <c r="P47" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" t="s">
-        <v>138</v>
-      </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="H48" s="2">
-        <v>851</v>
+        <v>183</v>
       </c>
       <c r="I48" s="2">
-        <v>51</v>
-      </c>
-      <c r="J48" s="4">
-        <v>952</v>
+        <v>22</v>
+      </c>
+      <c r="J48" s="2">
+        <v>205</v>
       </c>
       <c r="K48" s="2">
-        <v>72.48</v>
+        <v>55.96</v>
       </c>
       <c r="L48" s="2">
-        <v>615.33000000000004</v>
+        <v>404.61</v>
       </c>
       <c r="M48" s="2">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="O48" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="P48" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="Q48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D49" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="H49" s="2">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="I49" s="2">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
       </c>
       <c r="K49" s="2">
-        <v>38.57</v>
+        <v>12.93</v>
       </c>
       <c r="L49" s="2">
-        <v>438.3</v>
+        <v>292</v>
       </c>
       <c r="M49" s="2">
-        <v>6.93</v>
-      </c>
-      <c r="N49" t="s">
-        <v>298</v>
+        <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="P49" t="s">
-        <v>300</v>
+        <v>89</v>
       </c>
       <c r="Q49" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H50" s="2">
-        <v>241</v>
+        <v>2</v>
       </c>
       <c r="I50" s="2">
-        <v>9</v>
-      </c>
-      <c r="J50" s="4">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2</v>
       </c>
       <c r="K50" s="2">
-        <v>38.200000000000003</v>
+        <v>7.5</v>
       </c>
       <c r="L50" s="2">
-        <v>269.60000000000002</v>
+        <v>302</v>
       </c>
       <c r="M50" s="2">
-        <v>15.44</v>
-      </c>
-      <c r="N50" t="s">
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>49</v>
+        <v>372</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>373</v>
       </c>
       <c r="Q50" t="s">
-        <v>50</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="H51" s="2">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="I51" s="2">
-        <v>1</v>
-      </c>
-      <c r="J51" s="4">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>150</v>
       </c>
       <c r="K51" s="2">
-        <v>6.69</v>
+        <v>40.9</v>
       </c>
       <c r="L51" s="2">
-        <v>129.5</v>
+        <v>182</v>
       </c>
       <c r="M51" s="2">
-        <v>0.5</v>
+        <v>1.05</v>
+      </c>
+      <c r="N51" t="s">
+        <v>224</v>
       </c>
       <c r="O51" t="s">
-        <v>299</v>
+        <v>64</v>
       </c>
       <c r="P51" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="Q51" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="H52" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I52" s="2">
         <v>1</v>
       </c>
-      <c r="J52" s="4">
-        <v>12</v>
+      <c r="J52" s="2">
+        <v>15</v>
       </c>
       <c r="K52" s="2">
-        <v>60.41</v>
+        <v>42.68</v>
       </c>
       <c r="L52" s="2">
-        <v>250.88</v>
+        <v>138.29</v>
       </c>
       <c r="M52" s="2">
-        <v>5.42</v>
+        <v>0.54</v>
+      </c>
+      <c r="N52" t="s">
+        <v>337</v>
       </c>
       <c r="O52" t="s">
-        <v>23</v>
+        <v>338</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="Q52" t="s">
-        <v>25</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D53" s="2">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H53" s="2">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="I53" s="2">
-        <v>4</v>
-      </c>
-      <c r="J53" s="4">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>192</v>
       </c>
       <c r="K53" s="2">
-        <v>45.09</v>
+        <v>41.92</v>
       </c>
       <c r="L53" s="2">
-        <v>355.75</v>
+        <v>240.65</v>
       </c>
       <c r="M53" s="2">
-        <v>4.3499999999999996</v>
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="N53" t="s">
+        <v>181</v>
       </c>
       <c r="O53" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="Q53" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="H54" s="2">
-        <v>7</v>
+        <v>2224</v>
       </c>
       <c r="I54" s="2">
-        <v>1</v>
-      </c>
-      <c r="J54" s="4">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="J54" s="2">
+        <v>2230</v>
       </c>
       <c r="K54" s="2">
-        <v>42.68</v>
+        <v>15.1</v>
       </c>
       <c r="L54" s="2">
-        <v>138.29</v>
+        <v>447.75</v>
       </c>
       <c r="M54" s="2">
-        <v>0.6</v>
+        <v>2.23</v>
       </c>
       <c r="N54" t="s">
-        <v>338</v>
+        <v>83</v>
       </c>
       <c r="O54" t="s">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="P54" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="Q54" t="s">
-        <v>340</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>395</v>
+        <v>199</v>
       </c>
       <c r="H55" s="2">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="I55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J55" s="2">
+        <v>108</v>
       </c>
       <c r="K55" s="2">
-        <v>6.31</v>
+        <v>39.74</v>
       </c>
       <c r="L55" s="2">
-        <v>131.33000000000001</v>
+        <v>278.45999999999998</v>
       </c>
       <c r="M55" s="2">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O55" t="s">
-        <v>396</v>
+        <v>174</v>
       </c>
       <c r="P55" t="s">
-        <v>397</v>
+        <v>200</v>
       </c>
       <c r="Q55" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D56" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="2">
+        <v>36</v>
+      </c>
+      <c r="I56" s="2">
         <v>21</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H56" s="2">
-        <v>24</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1</v>
-      </c>
-      <c r="J56" s="4">
-        <v>26</v>
+      <c r="J56" s="2">
+        <v>57</v>
       </c>
       <c r="K56" s="2">
-        <v>55.69</v>
+        <v>11.15</v>
       </c>
       <c r="L56" s="2">
-        <v>364.83</v>
+        <v>86</v>
       </c>
       <c r="M56" s="2">
-        <v>0.72</v>
+        <v>13.65</v>
+      </c>
+      <c r="N56" t="s">
+        <v>361</v>
       </c>
       <c r="O56" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="P56" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="Q56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>363</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="C57" t="s">
-        <v>172</v>
-      </c>
       <c r="D57" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -4619,1278 +4576,1281 @@
         <v>20</v>
       </c>
       <c r="G57" t="s">
-        <v>364</v>
+        <v>147</v>
       </c>
       <c r="H57" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I57" s="2">
-        <v>3</v>
-      </c>
-      <c r="J57" s="4">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>24</v>
       </c>
       <c r="K57" s="2">
-        <v>18.739999999999998</v>
+        <v>64.14</v>
       </c>
       <c r="L57" s="2">
-        <v>231.8</v>
+        <v>431</v>
       </c>
       <c r="M57" s="2">
-        <v>10.99</v>
-      </c>
-      <c r="N57" t="s">
-        <v>365</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="P57" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="Q57" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D58" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="H58" s="2">
-        <v>670</v>
+        <v>8</v>
       </c>
       <c r="I58" s="2">
-        <v>20</v>
-      </c>
-      <c r="J58" s="4">
-        <v>694</v>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>8</v>
       </c>
       <c r="K58" s="2">
-        <v>97.45</v>
+        <v>18.91</v>
       </c>
       <c r="L58" s="2">
-        <v>1871</v>
+        <v>231.67</v>
       </c>
       <c r="M58" s="2">
-        <v>3.51</v>
-      </c>
-      <c r="N58" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="O58" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="P58" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="Q58" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G59" t="s">
-        <v>344</v>
+        <v>147</v>
       </c>
       <c r="H59" s="2">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I59" s="2">
-        <v>18</v>
-      </c>
-      <c r="J59" s="4">
-        <v>56</v>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>2</v>
       </c>
       <c r="K59" s="2">
-        <v>18.04</v>
+        <v>38.56</v>
       </c>
       <c r="L59" s="2">
-        <v>171.5</v>
+        <v>251</v>
       </c>
       <c r="M59" s="2">
-        <v>21</v>
-      </c>
-      <c r="N59" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="Q59" t="s">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D60" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>273</v>
+      </c>
+      <c r="H60" s="2">
+        <v>49</v>
+      </c>
+      <c r="I60" s="2">
         <v>21</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>58</v>
-      </c>
-      <c r="H60" s="2">
-        <v>40</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1</v>
-      </c>
-      <c r="J60" s="4">
-        <v>41</v>
+      <c r="J60" s="2">
+        <v>70</v>
       </c>
       <c r="K60" s="2">
-        <v>78.260000000000005</v>
+        <v>17.22</v>
       </c>
       <c r="L60" s="2">
-        <v>547.25</v>
+        <v>161.03</v>
       </c>
       <c r="M60" s="2">
-        <v>4.93</v>
-      </c>
-      <c r="N60" t="s">
-        <v>73</v>
+        <v>1.91</v>
       </c>
       <c r="O60" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="P60" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="Q60" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H61" s="2">
+        <v>2</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2">
+        <v>37.44</v>
+      </c>
+      <c r="L61" s="2">
+        <v>301</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>54</v>
+      </c>
+      <c r="P61" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q61" t="s">
         <v>31</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="4">
-        <v>27</v>
-      </c>
-      <c r="K61" s="2">
-        <v>71.47</v>
-      </c>
-      <c r="L61" s="2">
-        <v>435.25</v>
-      </c>
-      <c r="M61" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="N61" t="s">
-        <v>111</v>
-      </c>
-      <c r="O61" t="s">
-        <v>112</v>
-      </c>
-      <c r="P61" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D62" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>319</v>
       </c>
       <c r="H62" s="2">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I62" s="2">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>6</v>
       </c>
       <c r="K62" s="2">
-        <v>76.81</v>
+        <v>42.35</v>
       </c>
       <c r="L62" s="2">
-        <v>677.33</v>
+        <v>634</v>
       </c>
       <c r="M62" s="2">
-        <v>13.23</v>
-      </c>
-      <c r="N62" t="s">
-        <v>159</v>
+        <v>4.33</v>
       </c>
       <c r="O62" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="P62" t="s">
-        <v>61</v>
+        <v>321</v>
       </c>
       <c r="Q62" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>397</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D63" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>398</v>
       </c>
       <c r="H63" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2">
         <v>1</v>
       </c>
-      <c r="J63" s="4">
-        <v>33</v>
+      <c r="J63" s="2">
+        <v>2</v>
       </c>
       <c r="K63" s="2">
-        <v>71.680000000000007</v>
+        <v>6.13</v>
       </c>
       <c r="L63" s="2">
-        <v>740</v>
+        <v>91</v>
       </c>
       <c r="M63" s="2">
-        <v>5.12</v>
-      </c>
-      <c r="N63" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="P63" t="s">
-        <v>61</v>
+        <v>399</v>
       </c>
       <c r="Q63" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D64" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G64" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="H64" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I64" s="2">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="J64" s="2">
+        <v>22</v>
       </c>
       <c r="K64" s="2">
-        <v>44.5</v>
+        <v>5.79</v>
       </c>
       <c r="L64" s="2">
-        <v>459.67</v>
+        <v>112</v>
       </c>
       <c r="M64" s="2">
-        <v>14.07</v>
-      </c>
-      <c r="N64" t="s">
-        <v>295</v>
+        <v>0.35</v>
       </c>
       <c r="O64" t="s">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c r="P64" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="Q64" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
       <c r="D65" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="H65" s="2">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I65" s="2">
-        <v>7</v>
-      </c>
-      <c r="J65" s="4">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="J65" s="2">
+        <v>118</v>
       </c>
       <c r="K65" s="2">
-        <v>15.28</v>
+        <v>57.31</v>
       </c>
       <c r="L65" s="2">
-        <v>135</v>
+        <v>218.29</v>
       </c>
       <c r="M65" s="2">
-        <v>0</v>
+        <v>2.75</v>
+      </c>
+      <c r="N65" t="s">
+        <v>125</v>
       </c>
       <c r="O65" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="Q65" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="2">
         <v>18</v>
       </c>
-      <c r="C66" t="s">
-        <v>172</v>
-      </c>
-      <c r="D66" s="2">
-        <v>3</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="H66" s="2">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="4">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="J66" s="2">
+        <v>128</v>
       </c>
       <c r="K66" s="2">
-        <v>17.579999999999998</v>
+        <v>22.06</v>
       </c>
       <c r="L66" s="2">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="M66" s="2">
-        <v>12</v>
+        <v>5.5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>268</v>
       </c>
       <c r="O66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="Q66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D67" s="2">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="H67" s="2">
-        <v>6</v>
+        <v>1328</v>
       </c>
       <c r="I67" s="2">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1330</v>
       </c>
       <c r="K67" s="2">
-        <v>18.91</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="L67" s="2">
-        <v>257</v>
+        <v>484.58</v>
       </c>
       <c r="M67" s="2">
-        <v>5</v>
+        <v>1.99</v>
+      </c>
+      <c r="N67" t="s">
+        <v>221</v>
       </c>
       <c r="O67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="Q67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>390</v>
+        <v>209</v>
       </c>
       <c r="H68" s="2">
-        <v>5</v>
+        <v>1890</v>
       </c>
       <c r="I68" s="2">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1894</v>
       </c>
       <c r="K68" s="2">
-        <v>47.44</v>
+        <v>16.32</v>
       </c>
       <c r="L68" s="2">
-        <v>214.33</v>
+        <v>393.52</v>
       </c>
       <c r="M68" s="2">
-        <v>11.5</v>
+        <v>2.88</v>
       </c>
       <c r="N68" t="s">
-        <v>391</v>
+        <v>210</v>
       </c>
       <c r="O68" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="P68" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="Q68" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D69" s="2">
         <v>3</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="H69" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
         <v>2</v>
       </c>
+      <c r="J69" s="2">
+        <v>10</v>
+      </c>
       <c r="K69" s="2">
-        <v>45.47</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="L69" s="2">
-        <v>231.33</v>
+        <v>221</v>
       </c>
       <c r="M69" s="2">
-        <v>0.75</v>
+        <v>12</v>
       </c>
       <c r="O69" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="P69" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="Q69" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D70" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G70" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
       <c r="H70" s="2">
-        <v>384</v>
+        <v>187</v>
       </c>
       <c r="I70" s="2">
-        <v>100</v>
-      </c>
-      <c r="J70" s="4">
-        <v>484</v>
+        <v>11</v>
+      </c>
+      <c r="J70" s="2">
+        <v>198</v>
       </c>
       <c r="K70" s="2">
-        <v>80.78</v>
+        <v>13.61</v>
       </c>
       <c r="L70" s="2">
-        <v>474.5</v>
+        <v>385.25</v>
       </c>
       <c r="M70" s="2">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="N70" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
       <c r="O70" t="s">
-        <v>313</v>
+        <v>174</v>
       </c>
       <c r="P70" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="Q70" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" s="2">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="H71" s="2">
-        <v>193</v>
+        <v>601</v>
       </c>
       <c r="I71" s="2">
-        <v>4</v>
-      </c>
-      <c r="J71" s="4">
-        <v>197</v>
+        <v>50</v>
+      </c>
+      <c r="J71" s="2">
+        <v>651</v>
       </c>
       <c r="K71" s="2">
-        <v>97.95</v>
+        <v>26.8</v>
       </c>
       <c r="L71" s="2">
-        <v>1155.5</v>
+        <v>264.23</v>
       </c>
       <c r="M71" s="2">
-        <v>0.95</v>
+        <v>2.92</v>
+      </c>
+      <c r="N71" t="s">
+        <v>105</v>
       </c>
       <c r="O71" t="s">
+        <v>48</v>
+      </c>
+      <c r="P71" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q71" t="s">
         <v>49</v>
-      </c>
-      <c r="P71" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>351</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="H72" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I72" s="2">
-        <v>1</v>
-      </c>
-      <c r="J72" s="4">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="J72" s="2">
+        <v>100</v>
       </c>
       <c r="K72" s="2">
-        <v>64.14</v>
+        <v>5.46</v>
       </c>
       <c r="L72" s="2">
-        <v>431</v>
+        <v>39</v>
       </c>
       <c r="M72" s="2">
-        <v>7.5</v>
+        <v>13.2</v>
       </c>
       <c r="O72" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="P72" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="Q72" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
       <c r="D73" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H73" s="2">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I73" s="2">
-        <v>6</v>
-      </c>
-      <c r="J73" s="4">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="J73" s="2">
+        <v>296</v>
       </c>
       <c r="K73" s="2">
-        <v>57.38</v>
+        <v>28.82</v>
       </c>
       <c r="L73" s="2">
-        <v>558</v>
+        <v>216.73</v>
       </c>
       <c r="M73" s="2">
-        <v>0.69</v>
+        <v>2.65</v>
+      </c>
+      <c r="N73" t="s">
+        <v>119</v>
       </c>
       <c r="O73" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="P73" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Q73" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74" s="2">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>305</v>
+        <v>177</v>
       </c>
       <c r="H74" s="2">
-        <v>8</v>
+        <v>883</v>
       </c>
       <c r="I74" s="2">
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="J74" s="2">
+        <v>902</v>
       </c>
       <c r="K74" s="2">
-        <v>33.21</v>
+        <v>28.59</v>
       </c>
       <c r="L74" s="2">
-        <v>390.5</v>
+        <v>335.59</v>
       </c>
       <c r="M74" s="2">
-        <v>6</v>
+        <v>2.56</v>
       </c>
       <c r="O74" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="P74" t="s">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="Q74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>779</v>
       </c>
       <c r="I75" s="2">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="J75" s="2">
+        <v>794</v>
       </c>
       <c r="K75" s="2">
-        <v>30.12</v>
+        <v>39.28</v>
       </c>
       <c r="L75" s="2">
-        <v>263</v>
+        <v>355.99</v>
       </c>
       <c r="M75" s="2">
-        <v>1</v>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="N75" t="s">
+        <v>231</v>
       </c>
       <c r="O75" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="P75" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="Q75" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D76" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="H76" s="2">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="I76" s="2">
-        <v>0</v>
-      </c>
-      <c r="J76" s="4">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="J76" s="2">
+        <v>257</v>
       </c>
       <c r="K76" s="2">
-        <v>24.71</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="L76" s="2">
-        <v>215</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="M76" s="2">
-        <v>1</v>
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="N76" t="s">
+        <v>334</v>
       </c>
       <c r="O76" t="s">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="Q76" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="D77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="H77" s="2">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="I77" s="2">
-        <v>0</v>
-      </c>
-      <c r="J77" s="4">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="J77" s="2">
+        <v>106</v>
       </c>
       <c r="K77" s="2">
-        <v>14.27</v>
+        <v>22.92</v>
       </c>
       <c r="L77" s="2">
-        <v>274.5</v>
+        <v>121</v>
       </c>
       <c r="M77" s="2">
-        <v>11</v>
+        <v>16.89</v>
       </c>
       <c r="O77" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P77" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="Q77" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>331</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="s">
         <v>18</v>
       </c>
-      <c r="C78" t="s">
-        <v>172</v>
-      </c>
       <c r="D78" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="H78" s="2">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I78" s="2">
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="J78" s="2">
+        <v>114</v>
       </c>
       <c r="K78" s="2">
-        <v>36.35</v>
+        <v>36.67</v>
       </c>
       <c r="L78" s="2">
-        <v>301</v>
+        <v>324.74</v>
       </c>
       <c r="M78" s="2">
-        <v>1</v>
+        <v>5.49</v>
+      </c>
+      <c r="N78" t="s">
+        <v>131</v>
       </c>
       <c r="O78" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="P78" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="Q78" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D79" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G79" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="H79" s="2">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="I79" s="2">
-        <v>64</v>
-      </c>
-      <c r="J79" s="4">
-        <v>469</v>
+        <v>1</v>
+      </c>
+      <c r="J79" s="2">
+        <v>90</v>
       </c>
       <c r="K79" s="2">
-        <v>89.45</v>
+        <v>36.93</v>
       </c>
       <c r="L79" s="2">
-        <v>1009</v>
+        <v>425.82</v>
       </c>
       <c r="M79" s="2">
-        <v>18.75</v>
+        <v>2.62</v>
       </c>
       <c r="N79" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="O79" t="s">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="P79" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="Q79" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80" s="2">
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="H80" s="2">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="I80" s="2">
-        <v>22</v>
-      </c>
-      <c r="J80" s="4">
-        <v>206</v>
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>2</v>
       </c>
       <c r="K80" s="2">
-        <v>98.06</v>
+        <v>12.94</v>
       </c>
       <c r="L80" s="2">
-        <v>556</v>
+        <v>255</v>
       </c>
       <c r="M80" s="2">
-        <v>2.98</v>
+        <v>11</v>
       </c>
       <c r="O80" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="P80" t="s">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="Q80" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="H81" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I81" s="2">
-        <v>42</v>
-      </c>
-      <c r="J81" s="4">
-        <v>106</v>
+        <v>11</v>
+      </c>
+      <c r="J81" s="2">
+        <v>73</v>
       </c>
       <c r="K81" s="2">
-        <v>22.92</v>
+        <v>4.03</v>
       </c>
       <c r="L81" s="2">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="M81" s="2">
-        <v>16.89</v>
+        <v>0.41</v>
+      </c>
+      <c r="N81" t="s">
+        <v>386</v>
       </c>
       <c r="O81" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q81" t="s">
         <v>49</v>
-      </c>
-      <c r="P81" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -5902,719 +5862,725 @@
         <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>353</v>
+        <v>107</v>
       </c>
       <c r="H82" s="2">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I82" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" s="4">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>2</v>
       </c>
       <c r="K82" s="2">
-        <v>5.46</v>
+        <v>23.78</v>
       </c>
       <c r="L82" s="2">
-        <v>39</v>
+        <v>277</v>
       </c>
       <c r="M82" s="2">
-        <v>13.2</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
+        <v>48</v>
+      </c>
+      <c r="P82" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q82" t="s">
         <v>49</v>
-      </c>
-      <c r="P82" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D83" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="H83" s="2">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I83" s="2">
-        <v>36</v>
-      </c>
-      <c r="J83" s="4">
-        <v>94</v>
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>8</v>
       </c>
       <c r="K83" s="2">
-        <v>11.15</v>
+        <v>33.21</v>
       </c>
       <c r="L83" s="2">
-        <v>88</v>
+        <v>390.5</v>
       </c>
       <c r="M83" s="2">
-        <v>15.34</v>
+        <v>6</v>
       </c>
       <c r="O83" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="P83" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="Q83" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="B84" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="H84" s="2">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="I84" s="2">
-        <v>5</v>
-      </c>
-      <c r="J84" s="4">
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>6</v>
       </c>
       <c r="K84" s="2">
-        <v>98.16</v>
+        <v>68.38</v>
       </c>
       <c r="L84" s="2">
-        <v>1069</v>
+        <v>597</v>
       </c>
       <c r="M84" s="2">
-        <v>28.81</v>
-      </c>
-      <c r="N84" t="s">
-        <v>143</v>
+        <v>7.67</v>
       </c>
       <c r="O84" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="P84" t="s">
-        <v>145</v>
+        <v>284</v>
       </c>
       <c r="Q84" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>386</v>
+        <v>282</v>
       </c>
       <c r="H85" s="2">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I85" s="2">
-        <v>11</v>
-      </c>
-      <c r="J85" s="4">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
       </c>
       <c r="K85" s="2">
-        <v>4.03</v>
+        <v>30.12</v>
       </c>
       <c r="L85" s="2">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="M85" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="N85" t="s">
-        <v>387</v>
+        <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="P85" t="s">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="Q85" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="H86" s="2">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="I86" s="2">
-        <v>21</v>
-      </c>
-      <c r="J86" s="4">
-        <v>57</v>
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>4</v>
       </c>
       <c r="K86" s="2">
-        <v>11.15</v>
+        <v>24.71</v>
       </c>
       <c r="L86" s="2">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="M86" s="2">
-        <v>13.65</v>
-      </c>
-      <c r="N86" t="s">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="Q86" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="H87" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I87" s="2">
-        <v>5</v>
-      </c>
-      <c r="J87" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2</v>
       </c>
       <c r="K87" s="2">
-        <v>5.99</v>
+        <v>11.11</v>
       </c>
       <c r="L87" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M87" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O87" t="s">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="P87" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="Q87" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>391</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>392</v>
       </c>
       <c r="H88" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I88" s="2">
-        <v>3</v>
-      </c>
-      <c r="J88" s="4">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="J88" s="2">
+        <v>4</v>
       </c>
       <c r="K88" s="2">
-        <v>32.299999999999997</v>
+        <v>6.58</v>
       </c>
       <c r="L88" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="M88" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="P88" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Q88" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>358</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G89" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="H89" s="2">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I89" s="2">
-        <v>3</v>
-      </c>
-      <c r="J89" s="4">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="J89" s="2">
+        <v>89</v>
       </c>
       <c r="K89" s="2">
-        <v>2.96</v>
+        <v>98.16</v>
       </c>
       <c r="L89" s="2">
-        <v>41</v>
+        <v>1069</v>
       </c>
       <c r="M89" s="2">
-        <v>11</v>
+        <v>28.81</v>
+      </c>
+      <c r="N89" t="s">
+        <v>142</v>
       </c>
       <c r="O89" t="s">
-        <v>360</v>
+        <v>143</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="Q89" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="s">
         <v>18</v>
       </c>
-      <c r="C90" t="s">
-        <v>172</v>
-      </c>
       <c r="D90" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>320</v>
+        <v>113</v>
       </c>
       <c r="H90" s="2">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="I90" s="2">
-        <v>0</v>
-      </c>
-      <c r="J90" s="4">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>63</v>
       </c>
       <c r="K90" s="2">
-        <v>42.35</v>
+        <v>45.9</v>
       </c>
       <c r="L90" s="2">
-        <v>634</v>
+        <v>208.28</v>
       </c>
       <c r="M90" s="2">
-        <v>4.33</v>
+        <v>2.34</v>
+      </c>
+      <c r="N90" t="s">
+        <v>114</v>
       </c>
       <c r="O90" t="s">
-        <v>299</v>
+        <v>115</v>
       </c>
       <c r="P90" t="s">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="Q90" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D91" s="2">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G91" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="H91" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I91" s="2">
         <v>0</v>
       </c>
-      <c r="J91" s="4">
-        <v>6</v>
+      <c r="J91" s="2">
+        <v>2</v>
       </c>
       <c r="K91" s="2">
-        <v>68.38</v>
+        <v>19.28</v>
       </c>
       <c r="L91" s="2">
-        <v>597</v>
+        <v>70</v>
       </c>
       <c r="M91" s="2">
-        <v>7.67</v>
+        <v>12</v>
+      </c>
+      <c r="N91" t="s">
+        <v>346</v>
       </c>
       <c r="O91" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="P91" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="Q91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>404</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D92" s="2">
         <v>1</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>405</v>
       </c>
       <c r="H92" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I92" s="2">
         <v>0</v>
       </c>
-      <c r="J92" s="4">
-        <v>4</v>
+      <c r="J92" s="2">
+        <v>3</v>
       </c>
       <c r="K92" s="2">
-        <v>38.68</v>
+        <v>5.6</v>
       </c>
       <c r="L92" s="2">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="M92" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N92" t="s">
+        <v>406</v>
       </c>
       <c r="O92" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="P92" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="Q92" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B93" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" t="s">
+        <v>171</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>394</v>
+      </c>
+      <c r="H93" s="2">
+        <v>13</v>
+      </c>
+      <c r="I93" s="2">
+        <v>5</v>
+      </c>
+      <c r="J93" s="2">
         <v>18</v>
       </c>
-      <c r="C93" t="s">
-        <v>172</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>393</v>
-      </c>
-      <c r="H93" s="2">
-        <v>2</v>
-      </c>
-      <c r="I93" s="2">
-        <v>2</v>
-      </c>
-      <c r="J93" s="4">
-        <v>4</v>
-      </c>
       <c r="K93" s="2">
-        <v>6.58</v>
+        <v>6.02</v>
       </c>
       <c r="L93" s="2">
-        <v>79</v>
+        <v>125.29</v>
       </c>
       <c r="M93" s="2">
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>49</v>
+        <v>395</v>
       </c>
       <c r="P93" t="s">
-        <v>90</v>
+        <v>396</v>
       </c>
       <c r="Q93" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H94" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" s="2">
-        <v>1</v>
-      </c>
-      <c r="J94" s="4">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
       </c>
       <c r="K94" s="2">
-        <v>23.01</v>
+        <v>6.6</v>
       </c>
       <c r="L94" s="2">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="M94" s="2">
-        <v>16.5</v>
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>105</v>
       </c>
       <c r="O94" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="P94" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Q94" t="s">
-        <v>411</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>405</v>
+        <v>66</v>
       </c>
       <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
         <v>18</v>
       </c>
-      <c r="C95" t="s">
-        <v>172</v>
-      </c>
       <c r="D95" s="2">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>406</v>
+        <v>67</v>
       </c>
       <c r="H95" s="2">
-        <v>3</v>
+        <v>989</v>
       </c>
       <c r="I95" s="2">
-        <v>0</v>
-      </c>
-      <c r="J95" s="4">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1021</v>
       </c>
       <c r="K95" s="2">
-        <v>5.6</v>
+        <v>45.99</v>
       </c>
       <c r="L95" s="2">
-        <v>175</v>
+        <v>331.57</v>
       </c>
       <c r="M95" s="2">
-        <v>22</v>
+        <v>1.34</v>
       </c>
       <c r="N95" t="s">
-        <v>407</v>
+        <v>68</v>
       </c>
       <c r="O95" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="P95" t="s">
-        <v>408</v>
+        <v>70</v>
       </c>
       <c r="Q95" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
         <v>380</v>
-      </c>
-      <c r="B96" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" t="s">
-        <v>172</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>381</v>
       </c>
       <c r="H96" s="2">
         <v>2</v>
@@ -6622,7 +6588,7 @@
       <c r="I96" s="2">
         <v>1</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="2">
         <v>3</v>
       </c>
       <c r="K96" s="2">
@@ -6635,30 +6601,30 @@
         <v>25</v>
       </c>
       <c r="N96" t="s">
+        <v>381</v>
+      </c>
+      <c r="O96" t="s">
         <v>382</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>383</v>
       </c>
-      <c r="P96" t="s">
-        <v>384</v>
-      </c>
       <c r="Q96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>290</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>20</v>
@@ -6667,107 +6633,110 @@
         <v>20</v>
       </c>
       <c r="G97" t="s">
-        <v>377</v>
+        <v>291</v>
       </c>
       <c r="H97" s="2">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="I97" s="2">
-        <v>0</v>
-      </c>
-      <c r="J97" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="J97" s="2">
+        <v>197</v>
       </c>
       <c r="K97" s="2">
-        <v>11.72</v>
+        <v>97.95</v>
       </c>
       <c r="L97" s="2">
-        <v>77</v>
+        <v>1155.5</v>
       </c>
       <c r="M97" s="2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="O97" t="s">
-        <v>378</v>
+        <v>48</v>
       </c>
       <c r="P97" t="s">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="Q97" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D98" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="H98" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I98" s="2">
-        <v>0</v>
-      </c>
-      <c r="J98" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J98" s="2">
+        <v>19</v>
       </c>
       <c r="K98" s="2">
-        <v>24.82</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="L98" s="2">
-        <v>240</v>
+        <v>231.8</v>
       </c>
       <c r="M98" s="2">
-        <v>1</v>
+        <v>8.99</v>
+      </c>
+      <c r="N98" t="s">
+        <v>364</v>
       </c>
       <c r="O98" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="P98" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q98" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" t="s">
-        <v>33</v>
+        <v>400</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
@@ -6775,549 +6744,564 @@
       <c r="I99" s="2">
         <v>0</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="2">
         <v>2</v>
       </c>
       <c r="K99" s="2">
-        <v>29.09</v>
+        <v>28.9</v>
       </c>
       <c r="L99" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="M99" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="P99" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q99" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
         <v>18</v>
       </c>
-      <c r="C100" t="s">
-        <v>27</v>
-      </c>
       <c r="D100" s="2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="H100" s="2">
-        <v>2</v>
+        <v>770</v>
       </c>
       <c r="I100" s="2">
-        <v>0</v>
-      </c>
-      <c r="J100" s="4">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J100" s="2">
+        <v>783</v>
       </c>
       <c r="K100" s="2">
-        <v>26.24</v>
+        <v>28.5</v>
       </c>
       <c r="L100" s="2">
-        <v>301</v>
+        <v>458.7</v>
       </c>
       <c r="M100" s="2">
-        <v>11</v>
+        <v>1.26</v>
+      </c>
+      <c r="N100" t="s">
+        <v>169</v>
       </c>
       <c r="O100" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P100" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q100" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="B101" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" t="s">
         <v>18</v>
       </c>
-      <c r="C101" t="s">
-        <v>172</v>
-      </c>
       <c r="D101" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>21</v>
+      <c r="F101" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="H101" s="2">
+        <v>28</v>
+      </c>
+      <c r="I101" s="2">
         <v>2</v>
       </c>
-      <c r="I101" s="2">
-        <v>0</v>
-      </c>
-      <c r="J101" s="4">
-        <v>2</v>
+      <c r="J101" s="2">
+        <v>30</v>
       </c>
       <c r="K101" s="2">
-        <v>35.15</v>
+        <v>55.69</v>
       </c>
       <c r="L101" s="2">
-        <v>174</v>
+        <v>364.83</v>
       </c>
       <c r="M101" s="2">
-        <v>11</v>
+        <v>0.86</v>
       </c>
       <c r="O101" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="P101" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="Q101" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D102" s="2">
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="H102" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" s="2">
-        <v>0</v>
-      </c>
-      <c r="J102" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J102" s="2">
+        <v>4</v>
       </c>
       <c r="K102" s="2">
-        <v>24.21</v>
+        <v>23.01</v>
       </c>
       <c r="L102" s="2">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="M102" s="2">
-        <v>1</v>
+        <v>16.5</v>
       </c>
       <c r="O102" t="s">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c r="P102" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q102" t="s">
-        <v>32</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
         <v>18</v>
       </c>
-      <c r="C103" t="s">
-        <v>172</v>
-      </c>
       <c r="D103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="H103" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I103" s="2">
         <v>0</v>
       </c>
-      <c r="J103" s="4">
-        <v>2</v>
+      <c r="J103" s="2">
+        <v>4</v>
       </c>
       <c r="K103" s="2">
-        <v>17.73</v>
+        <v>14.27</v>
       </c>
       <c r="L103" s="2">
-        <v>225</v>
+        <v>274.5</v>
       </c>
       <c r="M103" s="2">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="O103" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="P103" t="s">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="Q103" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D104" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="H104" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I104" s="2">
         <v>0</v>
       </c>
-      <c r="J104" s="4">
-        <v>2</v>
+      <c r="J104" s="2">
+        <v>7</v>
       </c>
       <c r="K104" s="2">
-        <v>20.85</v>
+        <v>47.44</v>
       </c>
       <c r="L104" s="2">
-        <v>249</v>
+        <v>214.33</v>
       </c>
       <c r="M104" s="2">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="N104" t="s">
+        <v>390</v>
       </c>
       <c r="O104" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="P104" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="Q104" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" t="s">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" t="s">
         <v>18</v>
       </c>
-      <c r="C105" t="s">
-        <v>172</v>
-      </c>
       <c r="D105" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>302</v>
+        <v>134</v>
       </c>
       <c r="H105" s="2">
-        <v>2</v>
+        <v>1262</v>
       </c>
       <c r="I105" s="2">
-        <v>0</v>
-      </c>
-      <c r="J105" s="4">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1310</v>
       </c>
       <c r="K105" s="2">
-        <v>40.950000000000003</v>
+        <v>32.18</v>
       </c>
       <c r="L105" s="2">
-        <v>301</v>
+        <v>535.11</v>
       </c>
       <c r="M105" s="2">
-        <v>11</v>
+        <v>1.46</v>
+      </c>
+      <c r="N105" t="s">
+        <v>135</v>
       </c>
       <c r="O105" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="P105" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="Q105" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D106" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="H106" s="2">
-        <v>2</v>
+        <v>670</v>
       </c>
       <c r="I106" s="2">
-        <v>0</v>
-      </c>
-      <c r="J106" s="4">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="J106" s="2">
+        <v>694</v>
       </c>
       <c r="K106" s="2">
-        <v>23.17</v>
+        <v>97.45</v>
       </c>
       <c r="L106" s="2">
-        <v>285</v>
+        <v>1871</v>
       </c>
       <c r="M106" s="2">
-        <v>1</v>
+        <v>3.51</v>
+      </c>
+      <c r="N106" t="s">
+        <v>41</v>
       </c>
       <c r="O106" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="P106" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="Q106" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="H107" s="2">
-        <v>2</v>
+        <v>384</v>
       </c>
       <c r="I107" s="2">
-        <v>0</v>
-      </c>
-      <c r="J107" s="4">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="J107" s="2">
+        <v>484</v>
       </c>
       <c r="K107" s="2">
-        <v>12.93</v>
+        <v>80.78</v>
       </c>
       <c r="L107" s="2">
-        <v>292</v>
+        <v>474.5</v>
       </c>
       <c r="M107" s="2">
-        <v>1</v>
+        <v>2.5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>311</v>
       </c>
       <c r="O107" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="P107" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="Q107" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G108" t="s">
-        <v>372</v>
+        <v>63</v>
       </c>
       <c r="H108" s="2">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="I108" s="2">
-        <v>0</v>
-      </c>
-      <c r="J108" s="4">
-        <v>2</v>
+        <v>157</v>
+      </c>
+      <c r="J108" s="2">
+        <v>939</v>
       </c>
       <c r="K108" s="2">
-        <v>7.5</v>
+        <v>27.34</v>
       </c>
       <c r="L108" s="2">
-        <v>302</v>
+        <v>335.39</v>
       </c>
       <c r="M108" s="2">
-        <v>1</v>
+        <v>3.19</v>
       </c>
       <c r="O108" t="s">
-        <v>373</v>
+        <v>64</v>
       </c>
       <c r="P108" t="s">
-        <v>374</v>
+        <v>65</v>
       </c>
       <c r="Q108" t="s">
-        <v>375</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D109" s="2">
         <v>1</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="H109" s="2">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="I109" s="2">
-        <v>0</v>
-      </c>
-      <c r="J109" s="4">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="J109" s="2">
+        <v>94</v>
       </c>
       <c r="K109" s="2">
-        <v>38.56</v>
+        <v>11.15</v>
       </c>
       <c r="L109" s="2">
-        <v>251</v>
+        <v>88</v>
       </c>
       <c r="M109" s="2">
-        <v>0</v>
+        <v>15.34</v>
       </c>
       <c r="O109" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="P109" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="Q109" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>328</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="D110" s="2">
         <v>1</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>54</v>
+        <v>329</v>
       </c>
       <c r="H110" s="2">
         <v>2</v>
@@ -7325,40 +7309,40 @@
       <c r="I110" s="2">
         <v>0</v>
       </c>
-      <c r="J110" s="4">
+      <c r="J110" s="2">
         <v>2</v>
       </c>
       <c r="K110" s="2">
-        <v>37.44</v>
+        <v>29.15</v>
       </c>
       <c r="L110" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M110" s="2">
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P110" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q110" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" t="s">
-        <v>398</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" t="s">
         <v>18</v>
       </c>
-      <c r="C111" t="s">
-        <v>172</v>
-      </c>
       <c r="D111" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>20</v>
@@ -7367,148 +7351,154 @@
         <v>20</v>
       </c>
       <c r="G111" t="s">
-        <v>399</v>
+        <v>57</v>
       </c>
       <c r="H111" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I111" s="2">
         <v>1</v>
       </c>
-      <c r="J111" s="4">
-        <v>2</v>
+      <c r="J111" s="2">
+        <v>33</v>
       </c>
       <c r="K111" s="2">
-        <v>6.13</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="L111" s="2">
-        <v>91</v>
+        <v>740</v>
       </c>
       <c r="M111" s="2">
-        <v>0</v>
+        <v>5.12</v>
+      </c>
+      <c r="N111" t="s">
+        <v>58</v>
       </c>
       <c r="O111" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="P111" t="s">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="Q111" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>94</v>
       </c>
       <c r="B112" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" t="s">
         <v>18</v>
       </c>
-      <c r="C112" t="s">
-        <v>172</v>
-      </c>
       <c r="D112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c r="H112" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I112" s="2">
-        <v>0</v>
-      </c>
-      <c r="J112" s="4">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="J112" s="2">
+        <v>24</v>
       </c>
       <c r="K112" s="2">
-        <v>12.94</v>
+        <v>57.38</v>
       </c>
       <c r="L112" s="2">
-        <v>255</v>
+        <v>558</v>
       </c>
       <c r="M112" s="2">
-        <v>11</v>
+        <v>0.69</v>
       </c>
       <c r="O112" t="s">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="Q112" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>293</v>
+      </c>
+      <c r="H113" s="2">
+        <v>26</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2">
         <v>27</v>
       </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>108</v>
-      </c>
-      <c r="H113" s="2">
-        <v>2</v>
-      </c>
-      <c r="I113" s="2">
-        <v>0</v>
-      </c>
-      <c r="J113" s="4">
-        <v>2</v>
-      </c>
       <c r="K113" s="2">
-        <v>23.78</v>
+        <v>44.5</v>
       </c>
       <c r="L113" s="2">
-        <v>277</v>
+        <v>459.67</v>
       </c>
       <c r="M113" s="2">
-        <v>1</v>
+        <v>14.07</v>
+      </c>
+      <c r="N113" t="s">
+        <v>294</v>
       </c>
       <c r="O113" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P113" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="Q113" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" t="s">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
         <v>18</v>
       </c>
-      <c r="C114" t="s">
-        <v>172</v>
-      </c>
       <c r="D114" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>20</v>
@@ -7517,151 +7507,154 @@
         <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>357</v>
+        <v>57</v>
       </c>
       <c r="H114" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I114" s="2">
         <v>1</v>
       </c>
-      <c r="J114" s="4">
-        <v>2</v>
+      <c r="J114" s="2">
+        <v>41</v>
       </c>
       <c r="K114" s="2">
-        <v>11.11</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="L114" s="2">
-        <v>31</v>
+        <v>547.25</v>
       </c>
       <c r="M114" s="2">
-        <v>11</v>
+        <v>4.93</v>
+      </c>
+      <c r="N114" t="s">
+        <v>72</v>
       </c>
       <c r="O114" t="s">
-        <v>299</v>
+        <v>73</v>
       </c>
       <c r="P114" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q114" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" t="s">
-        <v>346</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
         <v>18</v>
       </c>
-      <c r="C115" t="s">
-        <v>172</v>
-      </c>
       <c r="D115" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G115" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="H115" s="2">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I115" s="2">
-        <v>0</v>
-      </c>
-      <c r="J115" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J115" s="2">
+        <v>41</v>
       </c>
       <c r="K115" s="2">
-        <v>19.28</v>
+        <v>76.81</v>
       </c>
       <c r="L115" s="2">
-        <v>70</v>
+        <v>677.33</v>
       </c>
       <c r="M115" s="2">
-        <v>12</v>
+        <v>13.23</v>
       </c>
       <c r="N115" t="s">
-        <v>347</v>
+        <v>158</v>
       </c>
       <c r="O115" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="P115" t="s">
-        <v>349</v>
+        <v>60</v>
       </c>
       <c r="Q115" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" t="s">
-        <v>401</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D116" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="H116" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I116" s="2">
         <v>0</v>
       </c>
-      <c r="J116" s="4">
-        <v>2</v>
+      <c r="J116" s="2">
+        <v>4</v>
       </c>
       <c r="K116" s="2">
-        <v>28.9</v>
+        <v>36.35</v>
       </c>
       <c r="L116" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M116" s="2">
         <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="P116" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q116" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>109</v>
       </c>
       <c r="B117" t="s">
+        <v>17</v>
+      </c>
+      <c r="C117" t="s">
         <v>18</v>
       </c>
-      <c r="C117" t="s">
-        <v>172</v>
-      </c>
       <c r="D117" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>20</v>
@@ -7670,57 +7663,60 @@
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>330</v>
+        <v>57</v>
       </c>
       <c r="H117" s="2">
+        <v>31</v>
+      </c>
+      <c r="I117" s="2">
         <v>2</v>
       </c>
-      <c r="I117" s="2">
-        <v>0</v>
-      </c>
-      <c r="J117" s="4">
-        <v>2</v>
+      <c r="J117" s="2">
+        <v>33</v>
       </c>
       <c r="K117" s="2">
-        <v>29.15</v>
+        <v>71.47</v>
       </c>
       <c r="L117" s="2">
-        <v>300</v>
+        <v>435.25</v>
       </c>
       <c r="M117" s="2">
-        <v>1</v>
+        <v>5.2</v>
+      </c>
+      <c r="N117" t="s">
+        <v>110</v>
       </c>
       <c r="O117" t="s">
+        <v>111</v>
+      </c>
+      <c r="P117" t="s">
         <v>60</v>
       </c>
-      <c r="P117" t="s">
+      <c r="Q117" t="s">
         <v>61</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
       <c r="H118" s="2">
         <v>1</v>
@@ -7728,40 +7724,40 @@
       <c r="I118" s="2">
         <v>0</v>
       </c>
-      <c r="J118" s="4">
+      <c r="J118" s="2">
         <v>1</v>
       </c>
       <c r="K118" s="2">
-        <v>16.190000000000001</v>
+        <v>11.15</v>
       </c>
       <c r="L118" s="2">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M118" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>368</v>
+        <v>288</v>
       </c>
       <c r="O118" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="P118" t="s">
-        <v>369</v>
+        <v>60</v>
       </c>
       <c r="Q118" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" t="s">
-        <v>403</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2">
         <v>1</v>
@@ -7773,95 +7769,92 @@
         <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="H119" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I119" s="2">
-        <v>0</v>
-      </c>
-      <c r="J119" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="J119" s="2">
+        <v>8</v>
       </c>
       <c r="K119" s="2">
-        <v>6.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="L119" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M119" s="2">
-        <v>2</v>
-      </c>
-      <c r="N119" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="O119" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="P119" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="Q119" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>171</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>343</v>
+      </c>
+      <c r="H120" s="2">
+        <v>40</v>
+      </c>
+      <c r="I120" s="2">
         <v>18</v>
       </c>
-      <c r="C120" t="s">
-        <v>172</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="J120" s="2">
+        <v>58</v>
+      </c>
+      <c r="K120" s="2">
+        <v>18.04</v>
+      </c>
+      <c r="L120" s="2">
+        <v>171.5</v>
+      </c>
+      <c r="M120" s="2">
         <v>21</v>
       </c>
-      <c r="G120" t="s">
-        <v>288</v>
-      </c>
-      <c r="H120" s="2">
-        <v>1</v>
-      </c>
-      <c r="I120" s="2">
-        <v>0</v>
-      </c>
-      <c r="J120" s="4">
-        <v>1</v>
-      </c>
-      <c r="K120" s="2">
-        <v>11.15</v>
-      </c>
-      <c r="L120" s="2">
-        <v>90</v>
-      </c>
-      <c r="M120" s="2">
-        <v>1</v>
-      </c>
       <c r="N120" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="O120" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P120" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="Q120" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:Q120">
-    <sortCondition descending="1" ref="D2:D120"/>
+    <sortCondition ref="A2:A120"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
